--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Mdk-Tspan1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Mdk-Tspan1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.324023666666666</v>
+        <v>2.180165333333334</v>
       </c>
       <c r="H2">
-        <v>3.972071</v>
+        <v>6.540496</v>
       </c>
       <c r="I2">
-        <v>0.01518042398701374</v>
+        <v>0.01970539991828544</v>
       </c>
       <c r="J2">
-        <v>0.01518042398701373</v>
+        <v>0.01970539991828544</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.4683803333333333</v>
+        <v>0.1992763333333334</v>
       </c>
       <c r="N2">
-        <v>1.405141</v>
+        <v>0.5978290000000001</v>
       </c>
       <c r="O2">
-        <v>0.190542397395757</v>
+        <v>0.08623076327255404</v>
       </c>
       <c r="P2">
-        <v>0.190542397395757</v>
+        <v>0.08623076327255402</v>
       </c>
       <c r="Q2">
-        <v>0.6201466463345555</v>
+        <v>0.4344553536871112</v>
       </c>
       <c r="R2">
-        <v>5.581319817011</v>
+        <v>3.910098183184</v>
       </c>
       <c r="S2">
-        <v>0.002892514379969654</v>
+        <v>0.001699211675544677</v>
       </c>
       <c r="T2">
-        <v>0.002892514379969653</v>
+        <v>0.001699211675544677</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.324023666666666</v>
+        <v>2.180165333333334</v>
       </c>
       <c r="H3">
-        <v>3.972071</v>
+        <v>6.540496</v>
       </c>
       <c r="I3">
-        <v>0.01518042398701374</v>
+        <v>0.01970539991828544</v>
       </c>
       <c r="J3">
-        <v>0.01518042398701373</v>
+        <v>0.01970539991828544</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.489416666666666</v>
+        <v>1.489416666666667</v>
       </c>
       <c r="N3">
-        <v>4.468249999999999</v>
+        <v>4.46825</v>
       </c>
       <c r="O3">
-        <v>0.6059114830209859</v>
+        <v>0.6444996947163647</v>
       </c>
       <c r="P3">
-        <v>0.6059114830209859</v>
+        <v>0.6444996947163646</v>
       </c>
       <c r="Q3">
-        <v>1.972022916194444</v>
+        <v>3.247174583555556</v>
       </c>
       <c r="R3">
-        <v>17.74820624575</v>
+        <v>29.224571252</v>
       </c>
       <c r="S3">
-        <v>0.009197993210858841</v>
+        <v>0.01270012423159884</v>
       </c>
       <c r="T3">
-        <v>0.009197993210858839</v>
+        <v>0.01270012423159884</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.324023666666666</v>
+        <v>2.180165333333334</v>
       </c>
       <c r="H4">
-        <v>3.972071</v>
+        <v>6.540496</v>
       </c>
       <c r="I4">
-        <v>0.01518042398701374</v>
+        <v>0.01970539991828544</v>
       </c>
       <c r="J4">
-        <v>0.01518042398701373</v>
+        <v>0.01970539991828544</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -679,33 +679,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.5003453333333333</v>
+        <v>0.572399</v>
       </c>
       <c r="N4">
-        <v>1.501036</v>
+        <v>1.717197</v>
       </c>
       <c r="O4">
-        <v>0.2035461195832571</v>
+        <v>0.2476882319180568</v>
       </c>
       <c r="P4">
-        <v>0.2035461195832571</v>
+        <v>0.2476882319180568</v>
       </c>
       <c r="Q4">
-        <v>0.6624690628395554</v>
+        <v>1.247924456634667</v>
       </c>
       <c r="R4">
-        <v>5.962221565556</v>
+        <v>11.231320109712</v>
       </c>
       <c r="S4">
-        <v>0.003089916396185243</v>
+        <v>0.00488079566499834</v>
       </c>
       <c r="T4">
-        <v>0.003089916396185243</v>
+        <v>0.00488079566499834</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>81.17653533333333</v>
+        <v>2.180165333333334</v>
       </c>
       <c r="H5">
-        <v>243.529606</v>
+        <v>6.540496</v>
       </c>
       <c r="I5">
-        <v>0.9307191821270077</v>
+        <v>0.01970539991828544</v>
       </c>
       <c r="J5">
-        <v>0.9307191821270073</v>
+        <v>0.01970539991828544</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.4683803333333333</v>
+        <v>0.04987366666666667</v>
       </c>
       <c r="N5">
-        <v>1.405141</v>
+        <v>0.149621</v>
       </c>
       <c r="O5">
-        <v>0.190542397395757</v>
+        <v>0.0215813100930246</v>
       </c>
       <c r="P5">
-        <v>0.190542397395757</v>
+        <v>0.0215813100930246</v>
       </c>
       <c r="Q5">
-        <v>38.02149267827178</v>
+        <v>0.1087328391128889</v>
       </c>
       <c r="R5">
-        <v>342.193434104446</v>
+        <v>0.978595552016</v>
       </c>
       <c r="S5">
-        <v>0.1773414642646982</v>
+        <v>0.0004252683461435797</v>
       </c>
       <c r="T5">
-        <v>0.1773414642646982</v>
+        <v>0.0004252683461435797</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,40 +791,40 @@
         <v>243.529606</v>
       </c>
       <c r="I6">
-        <v>0.9307191821270077</v>
+        <v>0.733713204346044</v>
       </c>
       <c r="J6">
-        <v>0.9307191821270073</v>
+        <v>0.7337132043460441</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>1.489416666666666</v>
+        <v>0.1992763333333334</v>
       </c>
       <c r="N6">
-        <v>4.468249999999999</v>
+        <v>0.5978290000000001</v>
       </c>
       <c r="O6">
-        <v>0.6059114830209859</v>
+        <v>0.08623076327255404</v>
       </c>
       <c r="P6">
-        <v>0.6059114830209859</v>
+        <v>0.08623076327255402</v>
       </c>
       <c r="Q6">
-        <v>120.9056846677222</v>
+        <v>16.17656231393045</v>
       </c>
       <c r="R6">
-        <v>1088.1511620095</v>
+        <v>145.589060825374</v>
       </c>
       <c r="S6">
-        <v>0.5639334399186542</v>
+        <v>0.0632686496339108</v>
       </c>
       <c r="T6">
-        <v>0.5639334399186541</v>
+        <v>0.0632686496339108</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,45 +853,45 @@
         <v>243.529606</v>
       </c>
       <c r="I7">
-        <v>0.9307191821270077</v>
+        <v>0.733713204346044</v>
       </c>
       <c r="J7">
-        <v>0.9307191821270073</v>
+        <v>0.7337132043460441</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.5003453333333333</v>
+        <v>1.489416666666667</v>
       </c>
       <c r="N7">
-        <v>1.501036</v>
+        <v>4.46825</v>
       </c>
       <c r="O7">
-        <v>0.2035461195832571</v>
+        <v>0.6444996947163647</v>
       </c>
       <c r="P7">
-        <v>0.2035461195832571</v>
+        <v>0.6444996947163646</v>
       </c>
       <c r="Q7">
-        <v>40.61630063020178</v>
+        <v>120.9056846677222</v>
       </c>
       <c r="R7">
-        <v>365.546705671816</v>
+        <v>1088.1511620095</v>
       </c>
       <c r="S7">
-        <v>0.1894442779436552</v>
+        <v>0.4728779362103911</v>
       </c>
       <c r="T7">
-        <v>0.1894442779436551</v>
+        <v>0.4728779362103911</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.525915333333334</v>
+        <v>81.17653533333333</v>
       </c>
       <c r="H8">
-        <v>10.577746</v>
+        <v>243.529606</v>
       </c>
       <c r="I8">
-        <v>0.04042593123510095</v>
+        <v>0.733713204346044</v>
       </c>
       <c r="J8">
-        <v>0.04042593123510094</v>
+        <v>0.7337132043460441</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -927,33 +927,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.4683803333333333</v>
+        <v>0.572399</v>
       </c>
       <c r="N8">
-        <v>1.405141</v>
+        <v>1.717197</v>
       </c>
       <c r="O8">
-        <v>0.190542397395757</v>
+        <v>0.2476882319180568</v>
       </c>
       <c r="P8">
-        <v>0.190542397395757</v>
+        <v>0.2476882319180568</v>
       </c>
       <c r="Q8">
-        <v>1.651469399131778</v>
+        <v>46.46536764826467</v>
       </c>
       <c r="R8">
-        <v>14.863224592186</v>
+        <v>418.188308834382</v>
       </c>
       <c r="S8">
-        <v>0.007702853854492151</v>
+        <v>0.1817321263194035</v>
       </c>
       <c r="T8">
-        <v>0.007702853854492148</v>
+        <v>0.1817321263194036</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.525915333333334</v>
+        <v>81.17653533333333</v>
       </c>
       <c r="H9">
-        <v>10.577746</v>
+        <v>243.529606</v>
       </c>
       <c r="I9">
-        <v>0.04042593123510095</v>
+        <v>0.733713204346044</v>
       </c>
       <c r="J9">
-        <v>0.04042593123510094</v>
+        <v>0.7337132043460441</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>1.489416666666666</v>
+        <v>0.04987366666666667</v>
       </c>
       <c r="N9">
-        <v>4.468249999999999</v>
+        <v>0.149621</v>
       </c>
       <c r="O9">
-        <v>0.6059114830209859</v>
+        <v>0.0215813100930246</v>
       </c>
       <c r="P9">
-        <v>0.6059114830209859</v>
+        <v>0.0215813100930246</v>
       </c>
       <c r="Q9">
-        <v>5.251557062722222</v>
+        <v>4.048571464369556</v>
       </c>
       <c r="R9">
-        <v>47.2640135645</v>
+        <v>36.437143179326</v>
       </c>
       <c r="S9">
-        <v>0.02449453594716441</v>
+        <v>0.01583449218233871</v>
       </c>
       <c r="T9">
-        <v>0.0244945359471644</v>
+        <v>0.01583449218233871</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,51 +1033,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.525915333333334</v>
+        <v>25.672264</v>
       </c>
       <c r="H10">
-        <v>10.577746</v>
+        <v>77.016792</v>
       </c>
       <c r="I10">
-        <v>0.04042593123510095</v>
+        <v>0.2320384702908474</v>
       </c>
       <c r="J10">
-        <v>0.04042593123510094</v>
+        <v>0.2320384702908474</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.5003453333333333</v>
+        <v>0.1992763333333334</v>
       </c>
       <c r="N10">
-        <v>1.501036</v>
+        <v>0.5978290000000001</v>
       </c>
       <c r="O10">
-        <v>0.2035461195832571</v>
+        <v>0.08623076327255404</v>
       </c>
       <c r="P10">
-        <v>0.2035461195832571</v>
+        <v>0.08623076327255402</v>
       </c>
       <c r="Q10">
-        <v>1.764175282761778</v>
+        <v>5.115874638285334</v>
       </c>
       <c r="R10">
-        <v>15.877577544856</v>
+        <v>46.042871744568</v>
       </c>
       <c r="S10">
-        <v>0.008228541433444389</v>
+        <v>0.02000885440177563</v>
       </c>
       <c r="T10">
-        <v>0.008228541433444385</v>
+        <v>0.02000885440177562</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,7 +1086,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1095,51 +1095,51 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.192675</v>
+        <v>25.672264</v>
       </c>
       <c r="H11">
-        <v>3.578025</v>
+        <v>77.016792</v>
       </c>
       <c r="I11">
-        <v>0.0136744626508778</v>
+        <v>0.2320384702908474</v>
       </c>
       <c r="J11">
-        <v>0.0136744626508778</v>
+        <v>0.2320384702908474</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.4683803333333333</v>
+        <v>1.489416666666667</v>
       </c>
       <c r="N11">
-        <v>1.405141</v>
+        <v>4.46825</v>
       </c>
       <c r="O11">
-        <v>0.190542397395757</v>
+        <v>0.6444996947163647</v>
       </c>
       <c r="P11">
-        <v>0.190542397395757</v>
+        <v>0.6444996947163646</v>
       </c>
       <c r="Q11">
-        <v>0.5586255140583334</v>
+        <v>38.23669787266667</v>
       </c>
       <c r="R11">
-        <v>5.027629626525</v>
+        <v>344.130280854</v>
       </c>
       <c r="S11">
-        <v>0.002605564896596995</v>
+        <v>0.1495487232649034</v>
       </c>
       <c r="T11">
-        <v>0.002605564896596994</v>
+        <v>0.1495487232649034</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,7 +1148,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1157,51 +1157,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.192675</v>
+        <v>25.672264</v>
       </c>
       <c r="H12">
-        <v>3.578025</v>
+        <v>77.016792</v>
       </c>
       <c r="I12">
-        <v>0.0136744626508778</v>
+        <v>0.2320384702908474</v>
       </c>
       <c r="J12">
-        <v>0.0136744626508778</v>
+        <v>0.2320384702908474</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>1.489416666666666</v>
+        <v>0.572399</v>
       </c>
       <c r="N12">
-        <v>4.468249999999999</v>
+        <v>1.717197</v>
       </c>
       <c r="O12">
-        <v>0.6059114830209859</v>
+        <v>0.2476882319180568</v>
       </c>
       <c r="P12">
-        <v>0.6059114830209859</v>
+        <v>0.2476882319180568</v>
       </c>
       <c r="Q12">
-        <v>1.776390022916666</v>
+        <v>14.694778241336</v>
       </c>
       <c r="R12">
-        <v>15.98751020625</v>
+        <v>132.253004172024</v>
       </c>
       <c r="S12">
-        <v>0.00828551394430845</v>
+        <v>0.05747319844331053</v>
       </c>
       <c r="T12">
-        <v>0.008285513944308449</v>
+        <v>0.05747319844331053</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1210,55 +1210,303 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>25.672264</v>
+      </c>
+      <c r="H13">
+        <v>77.016792</v>
+      </c>
+      <c r="I13">
+        <v>0.2320384702908474</v>
+      </c>
+      <c r="J13">
+        <v>0.2320384702908474</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.04987366666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.149621</v>
+      </c>
+      <c r="O13">
+        <v>0.0215813100930246</v>
+      </c>
+      <c r="P13">
+        <v>0.0215813100930246</v>
+      </c>
+      <c r="Q13">
+        <v>1.280369937314667</v>
+      </c>
+      <c r="R13">
+        <v>11.523329435832</v>
+      </c>
+      <c r="S13">
+        <v>0.005007694180857855</v>
+      </c>
+      <c r="T13">
+        <v>0.005007694180857855</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.608999666666667</v>
+      </c>
+      <c r="H14">
+        <v>4.826999</v>
+      </c>
+      <c r="I14">
+        <v>0.01454292544482312</v>
+      </c>
+      <c r="J14">
+        <v>0.01454292544482312</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.1992763333333334</v>
+      </c>
+      <c r="N14">
+        <v>0.5978290000000001</v>
+      </c>
+      <c r="O14">
+        <v>0.08623076327255404</v>
+      </c>
+      <c r="P14">
+        <v>0.08623076327255402</v>
+      </c>
+      <c r="Q14">
+        <v>0.3206355539078889</v>
+      </c>
+      <c r="R14">
+        <v>2.885719985171</v>
+      </c>
+      <c r="S14">
+        <v>0.001254047561322945</v>
+      </c>
+      <c r="T14">
+        <v>0.001254047561322945</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.608999666666667</v>
+      </c>
+      <c r="H15">
+        <v>4.826999</v>
+      </c>
+      <c r="I15">
+        <v>0.01454292544482312</v>
+      </c>
+      <c r="J15">
+        <v>0.01454292544482312</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.489416666666667</v>
+      </c>
+      <c r="N15">
+        <v>4.46825</v>
+      </c>
+      <c r="O15">
+        <v>0.6444996947163647</v>
+      </c>
+      <c r="P15">
+        <v>0.6444996947163646</v>
+      </c>
+      <c r="Q15">
+        <v>2.396470920194445</v>
+      </c>
+      <c r="R15">
+        <v>21.56823828175</v>
+      </c>
+      <c r="S15">
+        <v>0.009372911009471355</v>
+      </c>
+      <c r="T15">
+        <v>0.009372911009471354</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.192675</v>
-      </c>
-      <c r="H13">
-        <v>3.578025</v>
-      </c>
-      <c r="I13">
-        <v>0.0136744626508778</v>
-      </c>
-      <c r="J13">
-        <v>0.0136744626508778</v>
-      </c>
-      <c r="K13">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.608999666666667</v>
+      </c>
+      <c r="H16">
+        <v>4.826999</v>
+      </c>
+      <c r="I16">
+        <v>0.01454292544482312</v>
+      </c>
+      <c r="J16">
+        <v>0.01454292544482312</v>
+      </c>
+      <c r="K16">
         <v>2</v>
       </c>
-      <c r="L13">
+      <c r="L16">
         <v>0.6666666666666666</v>
       </c>
-      <c r="M13">
-        <v>0.5003453333333333</v>
-      </c>
-      <c r="N13">
-        <v>1.501036</v>
-      </c>
-      <c r="O13">
-        <v>0.2035461195832571</v>
-      </c>
-      <c r="P13">
-        <v>0.2035461195832571</v>
-      </c>
-      <c r="Q13">
-        <v>0.5967493704333334</v>
-      </c>
-      <c r="R13">
-        <v>5.3707443339</v>
-      </c>
-      <c r="S13">
-        <v>0.002783383809972356</v>
-      </c>
-      <c r="T13">
-        <v>0.002783383809972356</v>
+      <c r="M16">
+        <v>0.572399</v>
+      </c>
+      <c r="N16">
+        <v>1.717197</v>
+      </c>
+      <c r="O16">
+        <v>0.2476882319180568</v>
+      </c>
+      <c r="P16">
+        <v>0.2476882319180568</v>
+      </c>
+      <c r="Q16">
+        <v>0.9209898002003333</v>
+      </c>
+      <c r="R16">
+        <v>8.288908201803</v>
+      </c>
+      <c r="S16">
+        <v>0.003602111490344359</v>
+      </c>
+      <c r="T16">
+        <v>0.003602111490344359</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.608999666666667</v>
+      </c>
+      <c r="H17">
+        <v>4.826999</v>
+      </c>
+      <c r="I17">
+        <v>0.01454292544482312</v>
+      </c>
+      <c r="J17">
+        <v>0.01454292544482312</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.04987366666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.149621</v>
+      </c>
+      <c r="O17">
+        <v>0.0215813100930246</v>
+      </c>
+      <c r="P17">
+        <v>0.0215813100930246</v>
+      </c>
+      <c r="Q17">
+        <v>0.08024671304211112</v>
+      </c>
+      <c r="R17">
+        <v>0.722220417379</v>
+      </c>
+      <c r="S17">
+        <v>0.0003138553836844656</v>
+      </c>
+      <c r="T17">
+        <v>0.0003138553836844656</v>
       </c>
     </row>
   </sheetData>
